--- a/course_data/course_data.xlsx
+++ b/course_data/course_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>elec</t>
   </si>
@@ -33,10 +33,13 @@
     <t>math</t>
   </si>
   <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>tues</t>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -377,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +391,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C1">
         <v>201</v>
@@ -431,6 +434,15 @@
       <c r="C2">
         <v>201</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
@@ -450,6 +462,15 @@
       </c>
       <c r="C3">
         <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>

--- a/course_data/course_data.xlsx
+++ b/course_data/course_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>elec</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cpsc</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>comm</t>
+  </si>
+  <si>
+    <t>D2B</t>
+  </si>
+  <si>
+    <t>FRI</t>
   </si>
 </sst>
 </file>
@@ -378,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +504,64 @@
       </c>
       <c r="L3">
         <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>261</v>
+      </c>
+      <c r="C4">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1200</v>
+      </c>
+      <c r="I4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="C5">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>

--- a/course_data/course_data.xlsx
+++ b/course_data/course_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>elec</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>THURS</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,31 +444,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="I2">
-        <v>900</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -473,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="C3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -491,33 +494,24 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="I3">
-        <v>1400</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>1800</v>
-      </c>
-      <c r="L3">
-        <v>1900</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="C4">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -526,41 +520,79 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I4">
-        <v>1300</v>
+        <v>1400</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>1800</v>
+      </c>
+      <c r="L4">
+        <v>1900</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>261</v>
+      </c>
+      <c r="C5">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1200</v>
+      </c>
+      <c r="I5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>280</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>201</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>2000</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>2100</v>
       </c>
     </row>
@@ -571,12 +603,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>221</v>
+      </c>
+      <c r="C1">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>800</v>
+      </c>
+      <c r="I1">
+        <v>1200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>1000</v>
+      </c>
+      <c r="L1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+      <c r="C2">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+      <c r="I2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>307</v>
+      </c>
+      <c r="C3">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1300</v>
+      </c>
+      <c r="I3">
+        <v>1400</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>1800</v>
+      </c>
+      <c r="L3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>261</v>
+      </c>
+      <c r="C4">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1200</v>
+      </c>
+      <c r="I4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="C5">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>2100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/course_data/course_data.xlsx
+++ b/course_data/course_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="47">
   <si>
     <t>elec</t>
   </si>
@@ -58,14 +58,121 @@
   </si>
   <si>
     <t>THURS</t>
+  </si>
+  <si>
+    <t>L1A</t>
+  </si>
+  <si>
+    <t>CourseNum</t>
+  </si>
+  <si>
+    <t>Lecture Section</t>
+  </si>
+  <si>
+    <t>LabSection</t>
+  </si>
+  <si>
+    <t>TutorialSection</t>
+  </si>
+  <si>
+    <t>DiscussionSection</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Time1 Start</t>
+  </si>
+  <si>
+    <t>Time2 Start</t>
+  </si>
+  <si>
+    <t>Time1 End</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Time2 End</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Time3 Start</t>
+  </si>
+  <si>
+    <t>Time3 End</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>L1B</t>
+  </si>
+  <si>
+    <t>L1C</t>
+  </si>
+  <si>
+    <t>L1D</t>
+  </si>
+  <si>
+    <t>L1E</t>
+  </si>
+  <si>
+    <t>L1F</t>
+  </si>
+  <si>
+    <t>L1G</t>
+  </si>
+  <si>
+    <t>L1H</t>
+  </si>
+  <si>
+    <t>L1J</t>
+  </si>
+  <si>
+    <t>L1K</t>
+  </si>
+  <si>
+    <t>L1N</t>
+  </si>
+  <si>
+    <t>L1P</t>
+  </si>
+  <si>
+    <t>L1R</t>
+  </si>
+  <si>
+    <t>L1S</t>
+  </si>
+  <si>
+    <t>L1T</t>
+  </si>
+  <si>
+    <t>cpen</t>
+  </si>
+  <si>
+    <t>T1A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,208 +504,2710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>221</v>
-      </c>
-      <c r="C1">
-        <v>201</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>800</v>
-      </c>
-      <c r="I1">
-        <v>1200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1">
-        <v>1000</v>
-      </c>
-      <c r="L1">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>221</v>
       </c>
       <c r="C2">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="I2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>1400</v>
+      </c>
+      <c r="L2">
+        <v>1500</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>1400</v>
+      </c>
+      <c r="O2">
+        <v>1500</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>1100</v>
+      </c>
+      <c r="R2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C3">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="I3">
+        <v>1500</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>1400</v>
+      </c>
+      <c r="L3">
+        <v>1500</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>1400</v>
+      </c>
+      <c r="O3">
+        <v>1500</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I4">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K4">
+        <v>1400</v>
+      </c>
+      <c r="L4">
+        <v>1500</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>1400</v>
+      </c>
+      <c r="O4">
+        <v>1500</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>1600</v>
+      </c>
+      <c r="R4">
         <v>1800</v>
       </c>
-      <c r="L4">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C5">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5">
+        <v>1400</v>
+      </c>
+      <c r="I5">
+        <v>1500</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>1400</v>
+      </c>
+      <c r="L5">
+        <v>1500</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>1400</v>
+      </c>
+      <c r="O5">
+        <v>1500</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>1100</v>
+      </c>
+      <c r="R5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>221</v>
+      </c>
+      <c r="C6">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1400</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>1400</v>
+      </c>
+      <c r="L6">
+        <v>1500</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>1400</v>
+      </c>
+      <c r="O6">
+        <v>1500</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>1400</v>
+      </c>
+      <c r="R6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>221</v>
+      </c>
+      <c r="C7">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1400</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>1400</v>
+      </c>
+      <c r="L7">
+        <v>1500</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>1400</v>
+      </c>
+      <c r="O7">
+        <v>1500</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>1600</v>
+      </c>
+      <c r="R7">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>221</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1400</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>1400</v>
+      </c>
+      <c r="L8">
+        <v>1500</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>1400</v>
+      </c>
+      <c r="O8">
+        <v>1500</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>1600</v>
+      </c>
+      <c r="R8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>221</v>
+      </c>
+      <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1400</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>1400</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>1400</v>
+      </c>
+      <c r="O9">
+        <v>1500</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>1600</v>
+      </c>
+      <c r="R9">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>221</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1400</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>1400</v>
+      </c>
+      <c r="L10">
+        <v>1500</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>1400</v>
+      </c>
+      <c r="O10">
+        <v>1500</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>900</v>
+      </c>
+      <c r="R10">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>221</v>
+      </c>
+      <c r="C11">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1400</v>
+      </c>
+      <c r="I11">
+        <v>1500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>1400</v>
+      </c>
+      <c r="L11">
+        <v>1500</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>1400</v>
+      </c>
+      <c r="O11">
+        <v>1500</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>900</v>
+      </c>
+      <c r="R11">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>221</v>
+      </c>
+      <c r="C12">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>1400</v>
+      </c>
+      <c r="I12">
+        <v>1500</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>1400</v>
+      </c>
+      <c r="L12">
+        <v>1500</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>1400</v>
+      </c>
+      <c r="O12">
+        <v>1500</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>1800</v>
+      </c>
+      <c r="R12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>221</v>
+      </c>
+      <c r="C13">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>1400</v>
+      </c>
+      <c r="I13">
+        <v>1500</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>1400</v>
+      </c>
+      <c r="L13">
+        <v>1500</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>1400</v>
+      </c>
+      <c r="O13">
+        <v>1500</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>900</v>
+      </c>
+      <c r="R13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>221</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1400</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>1400</v>
+      </c>
+      <c r="L14">
+        <v>1500</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>1400</v>
+      </c>
+      <c r="O14">
+        <v>1500</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>1700</v>
+      </c>
+      <c r="R14">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>221</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1400</v>
+      </c>
+      <c r="I15">
+        <v>1500</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>1400</v>
+      </c>
+      <c r="L15">
+        <v>1500</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15">
+        <v>1400</v>
+      </c>
+      <c r="O15">
+        <v>1500</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>1600</v>
+      </c>
+      <c r="R15">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>221</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>1400</v>
+      </c>
+      <c r="I16">
+        <v>1500</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>1400</v>
+      </c>
+      <c r="L16">
+        <v>1500</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>1400</v>
+      </c>
+      <c r="O16">
+        <v>1500</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>1600</v>
+      </c>
+      <c r="R16">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>311</v>
+      </c>
+      <c r="C18">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1230</v>
+      </c>
+      <c r="I18">
+        <v>1400</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>1230</v>
+      </c>
+      <c r="L18">
+        <v>1400</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>1430</v>
+      </c>
+      <c r="O18">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>311</v>
+      </c>
+      <c r="C19">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>1230</v>
+      </c>
+      <c r="I19">
+        <v>1400</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>1230</v>
+      </c>
+      <c r="L19">
+        <v>1400</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>1000</v>
+      </c>
+      <c r="O19">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>311</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>1230</v>
+      </c>
+      <c r="I20">
+        <v>1400</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20">
+        <v>1230</v>
+      </c>
+      <c r="L20">
+        <v>1400</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>900</v>
+      </c>
+      <c r="O20">
         <v>1200</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>256</v>
+      </c>
+      <c r="C22">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1200</v>
+      </c>
+      <c r="I22">
         <v>1300</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>280</v>
-      </c>
-      <c r="C6">
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>1200</v>
+      </c>
+      <c r="L22">
+        <v>1300</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>1200</v>
+      </c>
+      <c r="O22">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>256</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1900</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>1900</v>
+      </c>
+      <c r="L23">
+        <v>2000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>1900</v>
+      </c>
+      <c r="O23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>253</v>
+      </c>
+      <c r="C24">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>1100</v>
+      </c>
+      <c r="I24">
+        <v>1200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>1100</v>
+      </c>
+      <c r="L24">
+        <v>1200</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>1100</v>
+      </c>
+      <c r="O24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>253</v>
+      </c>
+      <c r="C25">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>1100</v>
+      </c>
+      <c r="I25">
+        <v>1200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>1100</v>
+      </c>
+      <c r="L25">
+        <v>1200</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>1100</v>
+      </c>
+      <c r="O25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>253</v>
+      </c>
+      <c r="C26">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>1800</v>
+      </c>
+      <c r="I26">
+        <v>1900</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>1800</v>
+      </c>
+      <c r="L26">
+        <v>1900</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <v>1800</v>
+      </c>
+      <c r="O26">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>253</v>
+      </c>
+      <c r="C27">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>1100</v>
+      </c>
+      <c r="I27">
+        <v>1200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>1100</v>
+      </c>
+      <c r="L27">
+        <v>1200</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>1100</v>
+      </c>
+      <c r="O27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>221</v>
+      </c>
+      <c r="C29">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>1230</v>
+      </c>
+      <c r="I29">
+        <v>1400</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>1600</v>
+      </c>
+      <c r="L29">
+        <v>1800</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>1700</v>
+      </c>
+      <c r="O29">
+        <v>1900</v>
+      </c>
+      <c r="P29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29">
+        <v>1100</v>
+      </c>
+      <c r="R29">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>221</v>
+      </c>
+      <c r="C30">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>1230</v>
+      </c>
+      <c r="I30">
+        <v>1400</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>1600</v>
+      </c>
+      <c r="L30">
+        <v>1800</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>1700</v>
+      </c>
+      <c r="O30">
+        <v>1900</v>
+      </c>
+      <c r="P30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>1500</v>
+      </c>
+      <c r="R30">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>221</v>
+      </c>
+      <c r="C31">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>1230</v>
+      </c>
+      <c r="I31">
+        <v>1400</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>1600</v>
+      </c>
+      <c r="L31">
+        <v>1800</v>
+      </c>
+      <c r="M31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>1700</v>
+      </c>
+      <c r="O31">
+        <v>1900</v>
+      </c>
+      <c r="P31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>1500</v>
+      </c>
+      <c r="R31">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>221</v>
+      </c>
+      <c r="C32">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>1230</v>
+      </c>
+      <c r="I32">
+        <v>1400</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>1600</v>
+      </c>
+      <c r="L32">
+        <v>1800</v>
+      </c>
+      <c r="M32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>1700</v>
+      </c>
+      <c r="O32">
+        <v>1900</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>1500</v>
+      </c>
+      <c r="R32">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>221</v>
+      </c>
+      <c r="C33">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>1230</v>
+      </c>
+      <c r="I33">
+        <v>1400</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>1600</v>
+      </c>
+      <c r="L33">
+        <v>1800</v>
+      </c>
+      <c r="M33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>1700</v>
+      </c>
+      <c r="O33">
+        <v>1900</v>
+      </c>
+      <c r="P33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33">
+        <v>800</v>
+      </c>
+      <c r="R33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>221</v>
+      </c>
+      <c r="C34">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1230</v>
+      </c>
+      <c r="I34">
+        <v>1400</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>1600</v>
+      </c>
+      <c r="L34">
+        <v>1800</v>
+      </c>
+      <c r="M34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>1700</v>
+      </c>
+      <c r="O34">
+        <v>1900</v>
+      </c>
+      <c r="P34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>800</v>
+      </c>
+      <c r="R34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>221</v>
+      </c>
+      <c r="C36">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>1400</v>
+      </c>
+      <c r="I36">
+        <v>1500</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>1400</v>
+      </c>
+      <c r="L36">
+        <v>1500</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36">
+        <v>1400</v>
+      </c>
+      <c r="O36">
+        <v>1500</v>
+      </c>
+      <c r="P36" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>1700</v>
+      </c>
+      <c r="R36">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
         <v>201</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
+      <c r="C38">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>900</v>
+      </c>
+      <c r="I38">
+        <v>1100</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>900</v>
+      </c>
+      <c r="L38">
+        <v>1100</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38">
+        <v>900</v>
+      </c>
+      <c r="O38">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>201</v>
+      </c>
+      <c r="C39">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>900</v>
+      </c>
+      <c r="I39">
+        <v>1100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>900</v>
+      </c>
+      <c r="L39">
+        <v>1100</v>
+      </c>
+      <c r="M39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>900</v>
+      </c>
+      <c r="O39">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>201</v>
+      </c>
+      <c r="C40">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>900</v>
+      </c>
+      <c r="I40">
+        <v>1100</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40">
+        <v>900</v>
+      </c>
+      <c r="L40">
+        <v>1100</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1300</v>
+      </c>
+      <c r="O40">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>201</v>
+      </c>
+      <c r="C41">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>900</v>
+      </c>
+      <c r="I41">
+        <v>1100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>900</v>
+      </c>
+      <c r="L41">
+        <v>1100</v>
+      </c>
+      <c r="M41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>1300</v>
+      </c>
+      <c r="O41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>201</v>
+      </c>
+      <c r="C42">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>1300</v>
+      </c>
+      <c r="I42">
+        <v>1500</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42">
+        <v>1300</v>
+      </c>
+      <c r="L42">
+        <v>1500</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1300</v>
+      </c>
+      <c r="O42">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>201</v>
+      </c>
+      <c r="C43">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <v>1300</v>
+      </c>
+      <c r="I43">
+        <v>1500</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>1300</v>
+      </c>
+      <c r="L43">
+        <v>1500</v>
+      </c>
+      <c r="M43" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <v>1300</v>
+      </c>
+      <c r="O43">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>220</v>
+      </c>
+      <c r="C45">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>1200</v>
+      </c>
+      <c r="I45">
+        <v>1300</v>
+      </c>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>1200</v>
+      </c>
+      <c r="L45">
+        <v>1300</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45">
+        <v>1200</v>
+      </c>
+      <c r="O45">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>220</v>
+      </c>
+      <c r="C46">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>1200</v>
+      </c>
+      <c r="I46">
+        <v>1300</v>
+      </c>
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>1200</v>
+      </c>
+      <c r="L46">
+        <v>1300</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>1200</v>
+      </c>
+      <c r="O46">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>220</v>
+      </c>
+      <c r="C47">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
+      </c>
+      <c r="I47">
+        <v>1100</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>1000</v>
+      </c>
+      <c r="L47">
+        <v>1100</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47">
+        <v>1000</v>
+      </c>
+      <c r="O47">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>220</v>
+      </c>
+      <c r="C48">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>1500</v>
+      </c>
+      <c r="I48">
+        <v>1600</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>1500</v>
+      </c>
+      <c r="L48">
+        <v>1600</v>
+      </c>
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48">
+        <v>1500</v>
+      </c>
+      <c r="O48">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>220</v>
+      </c>
+      <c r="C49">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>1400</v>
+      </c>
+      <c r="I49">
+        <v>1500</v>
+      </c>
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>1400</v>
+      </c>
+      <c r="L49">
+        <v>1500</v>
+      </c>
+      <c r="M49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49">
+        <v>1400</v>
+      </c>
+      <c r="O49">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>220</v>
+      </c>
+      <c r="C50">
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>2100</v>
+      </c>
+      <c r="I50">
+        <v>2200</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>2100</v>
+      </c>
+      <c r="L50">
+        <v>2200</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50">
+        <v>2100</v>
+      </c>
+      <c r="O50">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>220</v>
+      </c>
+      <c r="C51">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>1700</v>
+      </c>
+      <c r="I51">
+        <v>1800</v>
+      </c>
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>1700</v>
+      </c>
+      <c r="L51">
+        <v>1800</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51">
+        <v>1700</v>
+      </c>
+      <c r="O51">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>220</v>
+      </c>
+      <c r="C52">
+        <v>110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>1500</v>
+      </c>
+      <c r="I52">
+        <v>1600</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>1500</v>
+      </c>
+      <c r="L52">
+        <v>1600</v>
+      </c>
+      <c r="M52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52">
+        <v>1500</v>
+      </c>
+      <c r="O52">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>220</v>
+      </c>
+      <c r="C53">
+        <v>107</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>930</v>
+      </c>
+      <c r="I53">
+        <v>1100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53">
+        <v>930</v>
+      </c>
+      <c r="L53">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>220</v>
+      </c>
+      <c r="C54">
+        <v>108</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>1230</v>
+      </c>
+      <c r="I54">
+        <v>1400</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54">
+        <v>1230</v>
+      </c>
+      <c r="L54">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <v>211</v>
+      </c>
+      <c r="C56">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>1530</v>
+      </c>
+      <c r="I56">
+        <v>1730</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>1530</v>
+      </c>
+      <c r="L56">
+        <v>1730</v>
+      </c>
+      <c r="M56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>1700</v>
+      </c>
+      <c r="O56">
+        <v>1900</v>
+      </c>
+      <c r="P56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56">
+        <v>930</v>
+      </c>
+      <c r="R56">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>211</v>
+      </c>
+      <c r="C57">
+        <v>101</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>1530</v>
+      </c>
+      <c r="I57">
+        <v>1730</v>
+      </c>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>1530</v>
+      </c>
+      <c r="L57">
+        <v>1730</v>
+      </c>
+      <c r="M57" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>1700</v>
+      </c>
+      <c r="O57">
+        <v>1900</v>
+      </c>
+      <c r="P57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>1330</v>
+      </c>
+      <c r="R57">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>211</v>
+      </c>
+      <c r="C58">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>1530</v>
+      </c>
+      <c r="I58">
+        <v>1730</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58">
+        <v>1530</v>
+      </c>
+      <c r="L58">
+        <v>1730</v>
+      </c>
+      <c r="M58" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58">
+        <v>1700</v>
+      </c>
+      <c r="O58">
+        <v>1900</v>
+      </c>
+      <c r="P58" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58">
+        <v>1500</v>
+      </c>
+      <c r="R58">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>211</v>
+      </c>
+      <c r="C59">
+        <v>101</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>1530</v>
+      </c>
+      <c r="I59">
+        <v>1730</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <v>1530</v>
+      </c>
+      <c r="L59">
+        <v>1730</v>
+      </c>
+      <c r="M59" t="s">
+        <v>9</v>
+      </c>
+      <c r="N59">
+        <v>1700</v>
+      </c>
+      <c r="O59">
+        <v>1900</v>
+      </c>
+      <c r="P59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q59">
+        <v>1100</v>
+      </c>
+      <c r="R59">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>211</v>
+      </c>
+      <c r="C60">
+        <v>101</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>1530</v>
+      </c>
+      <c r="I60">
+        <v>1730</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60">
+        <v>1530</v>
+      </c>
+      <c r="L60">
+        <v>1730</v>
+      </c>
+      <c r="M60" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60">
+        <v>1700</v>
+      </c>
+      <c r="O60">
+        <v>1900</v>
+      </c>
+      <c r="P60" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q60">
+        <v>1330</v>
+      </c>
+      <c r="R60">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>321</v>
+      </c>
+      <c r="C62">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>1500</v>
+      </c>
+      <c r="I62">
+        <v>1630</v>
+      </c>
+      <c r="J62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>1700</v>
+      </c>
+      <c r="L62">
+        <v>1830</v>
+      </c>
+      <c r="M62" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>1000</v>
+      </c>
+      <c r="O62">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63">
+        <v>321</v>
+      </c>
+      <c r="C63">
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>1500</v>
+      </c>
+      <c r="I63">
+        <v>1630</v>
+      </c>
+      <c r="J63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>1700</v>
+      </c>
+      <c r="L63">
+        <v>1830</v>
+      </c>
+      <c r="M63" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>1000</v>
+      </c>
+      <c r="O63">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64">
+        <v>321</v>
+      </c>
+      <c r="C64">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>1500</v>
+      </c>
+      <c r="I64">
+        <v>1630</v>
+      </c>
+      <c r="J64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>1700</v>
+      </c>
+      <c r="L64">
+        <v>1830</v>
+      </c>
+      <c r="M64" t="s">
+        <v>6</v>
+      </c>
+      <c r="N64">
+        <v>1500</v>
+      </c>
+      <c r="O64">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66">
+        <v>331</v>
+      </c>
+      <c r="C66">
+        <v>101</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>1100</v>
+      </c>
+      <c r="I66">
+        <v>1300</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66">
+        <v>1500</v>
+      </c>
+      <c r="L66">
+        <v>1600</v>
+      </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66">
+        <v>1700</v>
+      </c>
+      <c r="O66">
         <v>2000</v>
       </c>
-      <c r="I6">
-        <v>2100</v>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <v>331</v>
+      </c>
+      <c r="C67">
+        <v>101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67">
+        <v>1100</v>
+      </c>
+      <c r="I67">
+        <v>1300</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>1500</v>
+      </c>
+      <c r="L67">
+        <v>1600</v>
+      </c>
+      <c r="M67" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67">
+        <v>1700</v>
+      </c>
+      <c r="O67">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68">
+        <v>331</v>
+      </c>
+      <c r="C68">
+        <v>101</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>1100</v>
+      </c>
+      <c r="I68">
+        <v>1300</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>1500</v>
+      </c>
+      <c r="L68">
+        <v>1600</v>
+      </c>
+      <c r="M68" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68">
+        <v>1730</v>
+      </c>
+      <c r="O68">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69">
+        <v>331</v>
+      </c>
+      <c r="C69">
+        <v>101</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>1100</v>
+      </c>
+      <c r="I69">
+        <v>1300</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <v>1500</v>
+      </c>
+      <c r="L69">
+        <v>1600</v>
+      </c>
+      <c r="M69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69">
+        <v>1700</v>
+      </c>
+      <c r="O69">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
